--- a/biology/Biochimie/Pierre_Douzou/Pierre_Douzou.xlsx
+++ b/biology/Biochimie/Pierre_Douzou/Pierre_Douzou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Jules Louis Douzou est un biochimiste et essayiste français, né le 25 août 1926 à Millau (Aveyron) et mort le 19 juin 2000 à Saclay (Essonne).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du gantier Gaston Douzou. Après des études au lycée de Rodez, puis à la faculté des sciences et à la faculté de pharmacie de Lyon, il vient terminer son cursus à la Faculté des sciences de Paris. 
 Bernard Pullman repère ses talents de biologiste et de physicien et l'invite à prendre la direction d'un des services de l'IBPC en 1965. Ses recherches concernent la description des intermédiaires moléculaires transitoires lors des réactions enzymatiques. Il met au point des solvants antigel, invente la cryoenzymologie et explore les applications des techniques de congélation, notamment dans le domaine agronomique. Il est directeur de l'INRA de 1989 à 1991. 
@@ -544,7 +558,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1950 : Licencié ès sciences physiques, pharmacien.
 1958 : Docteur ès sciences physique.
@@ -585,10 +601,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Pelman de biologie (1962)[1] ;
-Lauréat de l’Académie des sciences - Institut de France (1973)[2] ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Pelman de biologie (1962) ;
+Lauréat de l’Académie des sciences - Institut de France (1973) ;
 Membre de l'Organisation européenne de biologie moléculaire ;
 Membre du conseil scientifique de l'Institut national de la santé et de la recherche médicale, INSERM (président 1979-1981), du conseil scientifique de l'INRA (président 1985-1989) et conseiller scientifique du CEA (1991) ;
 Membre de l'Académie des sciences, section de biologie cellulaire et moléculaire (1979) et de l'Académie nationale de pharmacie de Paris ;
@@ -621,7 +639,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Cryobiochemistry : an Introduction, Academic Press, 1977, 286 p. (ISBN 978-0-12-221050-1)
 Le chaud et le froid : les conflits du vivant, Fayard, 1984 (ISBN 978-2-213-01395-4)
